--- a/Financials/Quarterly/KZR_QTR_FIN.xlsx
+++ b/Financials/Quarterly/KZR_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73CFB58-CD6F-4849-9F76-BDD71FB895F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KZR" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>KZR</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,66 +689,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
+        <v>43008</v>
+      </c>
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
-        <v>42825</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,8 +782,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +817,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +852,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,37 +871,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F12" s="3">
         <v>5200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3600</v>
       </c>
-      <c r="F12" s="3">
-        <v>6500</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="H12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +937,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +972,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +1007,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,37 +1023,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F17" s="3">
         <v>7000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5100</v>
       </c>
-      <c r="F17" s="3">
-        <v>8700</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,28 +1069,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1108,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,28 +1119,34 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1047,28 +1154,34 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-4900</v>
       </c>
-      <c r="F21" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,37 +1209,49 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4900</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1900</v>
       </c>
       <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1900</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1279,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1314,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4900</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1900</v>
       </c>
       <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-1900</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1900</v>
       </c>
       <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1900</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1419,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1454,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1489,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1524,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,57 +1539,69 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1900</v>
       </c>
       <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1900</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1629,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1900</v>
       </c>
       <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1900</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
+        <v>43008</v>
+      </c>
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
-        <v>42825</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1723,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,23 +1738,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>39600</v>
+      </c>
+      <c r="F41" s="3">
         <v>102000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>47100</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1562,20 +1769,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>73200</v>
+      </c>
+      <c r="F42" s="3">
         <v>16400</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,23 +1804,29 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1620,8 +1839,14 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,23 +1874,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1678,23 +1909,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>109800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>115300</v>
+      </c>
+      <c r="F46" s="3">
         <v>120600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>50300</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1707,8 +1944,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,23 +1979,29 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F48" s="3">
         <v>4800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1765,8 +2014,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2049,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2084,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +2119,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1863,11 +2136,11 @@
       <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1881,8 +2154,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,23 +2189,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>120300</v>
+      </c>
+      <c r="F54" s="3">
         <v>125700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>54300</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1939,8 +2224,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2243,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,22 +2258,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>700</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1994,8 +2289,14 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,23 +2324,29 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F59" s="3">
         <v>2500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,23 +2359,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,8 +2394,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,23 +2429,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F62" s="3">
         <v>2700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2139,8 +2464,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2499,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2534,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,23 +2569,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F66" s="3">
         <v>6300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6800</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2255,8 +2604,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2623,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2654,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2689,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2335,14 +2704,14 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>77900</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2355,8 +2724,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,23 +2759,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-37800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-31000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2794,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2829,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2864,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,23 +2899,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>108800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>114100</v>
+      </c>
+      <c r="F76" s="3">
         <v>119300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-30500</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2934,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2969,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
+        <v>43008</v>
+      </c>
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
-        <v>42825</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1900</v>
       </c>
       <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1900</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3063,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2643,28 +3074,34 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3129,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3164,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3199,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3234,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3269,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-6900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3800</v>
       </c>
-      <c r="F89" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,25 +3323,27 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2879,8 +3354,14 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3389,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3424,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-56700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-17100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3478,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3509,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3544,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3579,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3614,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F100" s="3">
         <v>79000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>49800</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J100" s="3">
         <v>42400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3144,42 +3675,54 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="F102" s="3">
         <v>54900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3900</v>
       </c>
-      <c r="F102" s="3">
-        <v>41300</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J102" s="3">
         <v>40200</v>
       </c>
-      <c r="H102" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Financials/Quarterly/KZR_QTR_FIN.xlsx
+++ b/Financials/Quarterly/KZR_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73CFB58-CD6F-4849-9F76-BDD71FB895F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="KZR" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>KZR</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,72 +654,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -788,8 +765,17 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -823,8 +809,17 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -858,8 +853,17 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,43 +877,55 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G12" s="3">
         <v>4700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
         <v>4700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I12" s="3">
         <v>5200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>3600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -943,8 +959,17 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,8 +1003,17 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1013,8 +1047,17 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1025,43 +1068,55 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G17" s="3">
         <v>6400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>6300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>7000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>5100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1069,34 +1124,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-6300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-7000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-5100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1174,11 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1122,31 +1189,40 @@
         <v>600</v>
       </c>
       <c r="F20" s="3">
+        <v>700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>600</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1154,34 +1230,43 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="H21" s="3">
         <v>-5500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-6600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-4900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1215,43 +1300,61 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-5800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-5700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-6800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-4900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1285,8 +1388,17 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1320,78 +1432,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-5800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-5700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-6800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-4900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-5800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-5700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-6800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-4900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1425,8 +1564,17 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1460,8 +1608,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1495,8 +1652,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1530,8 +1696,17 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1542,66 +1717,84 @@
         <v>-600</v>
       </c>
       <c r="F32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-5800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-5700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-6800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-4900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1635,83 +1828,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-5800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-5700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-6800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-4900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1725,8 +1945,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1740,32 +1963,35 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>18500</v>
+      </c>
+      <c r="G41" s="3">
         <v>24200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>39600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>102000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>47100</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1775,29 +2001,38 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>80400</v>
+      </c>
+      <c r="F42" s="3">
+        <v>82700</v>
+      </c>
+      <c r="G42" s="3">
         <v>83300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="H42" s="3">
         <v>73200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="I42" s="3">
         <v>16400</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +2045,17 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1824,18 +2068,18 @@
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1845,8 +2089,17 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1880,32 +2133,41 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,32 +2177,41 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>96200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>103800</v>
+      </c>
+      <c r="G46" s="3">
         <v>109800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>115300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>120600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>50300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1950,8 +2221,17 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1985,32 +2265,41 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G48" s="3">
         <v>4600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>4700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>4800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>3600</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2309,17 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2055,8 +2353,17 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2090,8 +2397,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2125,8 +2441,17 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2142,14 +2467,14 @@
       <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>300</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2160,8 +2485,17 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2195,32 +2529,41 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>97500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>105300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>113100</v>
+      </c>
+      <c r="G54" s="3">
         <v>114700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>120300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>125700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>54300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2573,17 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2245,8 +2597,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2260,32 +2615,35 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2295,8 +2653,17 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2330,32 +2697,41 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>4000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,32 +2741,41 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G60" s="3">
         <v>3300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2400,8 +2785,17 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2435,32 +2829,41 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G62" s="3">
         <v>2500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>2600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>2700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,8 +2873,17 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2505,8 +2917,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2540,8 +2961,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2575,32 +3005,41 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G66" s="3">
         <v>5900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>6100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>6300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>6800</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,8 +3049,17 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2625,8 +3073,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2660,8 +3111,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2695,8 +3155,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2710,17 +3179,17 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>77900</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -2730,8 +3199,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2765,32 +3243,41 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-74700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-49200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-43400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-37800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-31000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2800,8 +3287,17 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2835,8 +3331,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2870,8 +3375,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2905,32 +3419,41 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>94600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>102100</v>
+      </c>
+      <c r="G76" s="3">
         <v>108800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>114100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>119300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-30500</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2940,8 +3463,17 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2975,83 +3507,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-5800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-5700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-6800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-4900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3065,43 +3624,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>300</v>
+      </c>
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3135,8 +3706,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3170,8 +3750,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3205,8 +3794,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3240,8 +3838,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3275,43 +3882,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="G89" s="3">
         <v>-5500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>-4600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-6900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-3800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-2300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3325,8 +3950,11 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3334,25 +3962,25 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-100</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3360,8 +3988,17 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3395,8 +4032,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3430,43 +4076,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-9900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>-56700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-17100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3480,8 +4144,11 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3515,8 +4182,17 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3550,8 +4226,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3585,8 +4270,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3620,8 +4314,17 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3629,34 +4332,43 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>79000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>7300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>42400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3681,48 +4393,66 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G102" s="3">
         <v>-15400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>-62400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>54900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-3900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>-1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>4800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>40200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
